--- a/Data_science_outputs/1000pop/Monthly_consumption/Montlhy_consumption_3.xlsx
+++ b/Data_science_outputs/1000pop/Monthly_consumption/Montlhy_consumption_3.xlsx
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19605.39232543336</v>
+        <v>14444.12194975002</v>
       </c>
       <c r="C2" t="n">
         <v>2660.190442300005</v>
       </c>
       <c r="D2" t="n">
-        <v>5773.84967345</v>
+        <v>666.4819821333334</v>
       </c>
       <c r="E2" t="n">
         <v>2017.087552883333</v>
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18310.59233683336</v>
+        <v>13530.57041270002</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5394.635482416666</v>
+        <v>629.4793040000001</v>
       </c>
       <c r="E3" t="n">
         <v>1874.749056916667</v>
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19522.90578176669</v>
+        <v>14472.11968053336</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5780.466324466666</v>
+        <v>685.04545515</v>
       </c>
       <c r="E4" t="n">
         <v>1992.6938995</v>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18945.24684575002</v>
+        <v>13996.37456801669</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5615.6594634</v>
+        <v>637.5027093833334</v>
       </c>
       <c r="E5" t="n">
         <v>1901.323793466667</v>
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19609.17240526669</v>
+        <v>14531.34629450002</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5764.277216083333</v>
+        <v>690.6329750666666</v>
       </c>
       <c r="E6" t="n">
         <v>1950.262173133333</v>
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18980.05839128336</v>
+        <v>13997.48681761669</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5572.698514766666</v>
+        <v>673.12289</v>
       </c>
       <c r="E7" t="n">
         <v>1907.263202716667</v>
@@ -613,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19580.08887680003</v>
+        <v>14430.94576628336</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5766.268663516666</v>
+        <v>647.9368861833333</v>
       </c>
       <c r="E8" t="n">
         <v>1973.498342316667</v>
@@ -636,13 +636,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19564.88064453336</v>
+        <v>14499.41614671669</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5771.507798633333</v>
+        <v>694.7404019333333</v>
       </c>
       <c r="E9" t="n">
         <v>1986.835523083333</v>
@@ -659,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18912.42016395002</v>
+        <v>14057.64996260002</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5601.2995762</v>
+        <v>646.61009635</v>
       </c>
       <c r="E10" t="n">
         <v>1903.709462566667</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19529.31212086669</v>
+        <v>14470.00854215002</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5776.384247016666</v>
+        <v>674.1076421333332</v>
       </c>
       <c r="E11" t="n">
         <v>1979.680700583333</v>
@@ -705,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18900.55909445003</v>
+        <v>14020.68100321669</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>5597.721618066666</v>
+        <v>629.6293876166667</v>
       </c>
       <c r="E12" t="n">
         <v>1906.152343766667</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19045.74596528336</v>
+        <v>14019.26579695003</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5600.97550935</v>
+        <v>653.7429827833333</v>
       </c>
       <c r="E13" t="n">
         <v>1910.13350515</v>
